--- a/Table of Content (Just NYT).xlsx
+++ b/Table of Content (Just NYT).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cac0dc9d13d256c9/Documents/NUFDI/Misinformation/NYT/Mahsa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cac0dc9d13d256c9/Documents/Advanced Willy/NUFDI/NUFDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="240" documentId="11_F25DC773A252ABDACC104835C91E41EE5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65E6982-1A4B-4EAB-B20B-CC7F90EB339B}"/>
@@ -10606,10 +10606,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10875,8 +10871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
